--- a/console/Networking/diskChExcel/diskMixins/create.xlsx
+++ b/console/Networking/diskChExcel/diskMixins/create.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.18\Console_190117-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\MobileFile\translation_review-确认by-GTCOM\translation_review-确认\translation_review\diskChExcel\diskMixins\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -154,9 +154,6 @@
     </r>
   </si>
   <si>
-    <t>Hard Disk Type</t>
-  </si>
-  <si>
     <t>create_i18nKey_9</t>
   </si>
   <si>
@@ -227,9 +224,6 @@
     </r>
   </si>
   <si>
-    <t>The general type SSD Cloud Disk can stably provide basic capabilities of 10&amp;nbsp;IOPS</t>
-  </si>
-  <si>
     <t>create_i18nKey_11</t>
   </si>
   <si>
@@ -274,9 +268,6 @@
     </r>
   </si>
   <si>
-    <t>/GB. The performance type SSD Cloud Disk can stably provide optimal capabilities of 30&amp;nbsp;IOPS</t>
-  </si>
-  <si>
     <t>create_i18nKey_12</t>
   </si>
   <si>
@@ -312,9 +303,6 @@
     </r>
   </si>
   <si>
-    <t>/GB. The capacity type HDD Cloud Disk is suitable for cold data backup and archiving.</t>
-  </si>
-  <si>
     <t>create_i18nKey_13</t>
   </si>
   <si>
@@ -477,9 +465,6 @@
     </r>
   </si>
   <si>
-    <t>The cloud disk created with the encrypted snapshot will be automatically encrypted and the cloud disk created with the unencrypted snapshot will not be automatically encrypted. If the snapshot is not selected, you can freely determine to create an encrypted cloud disk or not.</t>
-  </si>
-  <si>
     <t>create_i18nKey_22</t>
   </si>
   <si>
@@ -559,9 +544,6 @@
     </r>
   </si>
   <si>
-    <t>Purchase</t>
-  </si>
-  <si>
     <t>create_i18nKey_27</t>
   </si>
   <si>
@@ -576,9 +558,6 @@
     </r>
   </si>
   <si>
-    <t>Purchase Duration</t>
-  </si>
-  <si>
     <t>create_i18nKey_28</t>
   </si>
   <si>
@@ -593,9 +572,6 @@
     </r>
   </si>
   <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>create_i18nKey_29</t>
   </si>
   <si>
@@ -947,9 +923,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">'The quota of resources of the chosen region is full, please switch the region or open ticket and increase quota.' </t>
-  </si>
-  <si>
     <t>create_i18nKey_44</t>
   </si>
   <si>
@@ -998,9 +971,6 @@
     </r>
   </si>
   <si>
-    <t>The quota of resources of the selected region is full, please switch the region or</t>
-  </si>
-  <si>
     <t>create_i18nKey_47</t>
   </si>
   <si>
@@ -1087,35 +1057,194 @@
     <t>create_i18nKey_48</t>
   </si>
   <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>描述只支持中文、数字、大小写字母及英文下划线</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>“_”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>且不能超过</t>
+    <t>create_i18nKey_49</t>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>未查询到所选规格售卖状况</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t>'No search results about the selling situation of the selected specification'</t>
+  </si>
+  <si>
+    <t>create_i18nKey_50</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>售罄，请切换类型</t>
+    </r>
+  </si>
+  <si>
+    <t>Sold out, please select another type</t>
+  </si>
+  <si>
+    <t>create_i18nKey_51</t>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>所选快照容量已超过指定类型云硬盘可创建容量上限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t>'The selected snapshot capacity has exceeded the available capacity quota of the specified cloud disk type'</t>
+  </si>
+  <si>
+    <t>create_i18nKey_52</t>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>云硬盘容量已超过指定类型云硬盘可创建容量上限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t>create_i18nKey_53</t>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>名称不能为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t>'Must provide a name'</t>
+  </si>
+  <si>
+    <t>create_i18nKey_54</t>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>长度不超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>个字符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t>'Length cannot exceed 32 characters'</t>
+  </si>
+  <si>
+    <t>create_i18nKey_55</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>描述长度不能超过</t>
     </r>
     <r>
       <rPr>
@@ -1135,259 +1264,12 @@
       </rPr>
       <t>个字符</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <t>'The description only supports Chinese, digits, upper case and lower case letters and English underline “_”, with at most 256 characters'</t>
-  </si>
-  <si>
-    <t>create_i18nKey_49</t>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>未查询到所选规格售卖状况</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <t>'No search results about the selling situation of the selected specification'</t>
-  </si>
-  <si>
-    <t>create_i18nKey_50</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>售罄，请切换类型</t>
-    </r>
-  </si>
-  <si>
-    <t>Sold out, please select another type</t>
-  </si>
-  <si>
-    <t>create_i18nKey_51</t>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>所选快照容量已超过指定类型云硬盘可创建容量上限</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <t>'The selected snapshot capacity has exceeded the available capacity quota of the specified cloud disk type'</t>
-  </si>
-  <si>
-    <t>create_i18nKey_52</t>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>云硬盘容量已超过指定类型云硬盘可创建容量上限</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <t>'The cloud disk capacity has exceeded the available capacity quota of the specified cloud disk type'</t>
-  </si>
-  <si>
-    <t>create_i18nKey_53</t>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>名称不能为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <t>'Must provide a name'</t>
-  </si>
-  <si>
-    <t>create_i18nKey_54</t>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>长度不超过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>个字符</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <t>'Length cannot exceed 32 characters'</t>
-  </si>
-  <si>
-    <t>create_i18nKey_55</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>描述长度不能超过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>256</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>个字符</t>
-    </r>
   </si>
   <si>
     <t>Description length cannot exceed 256 characters</t>
   </si>
   <si>
     <t>create_i18nKey_56</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>描述只支持中文、数字、大小写字母及英文下划线</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>“_”</t>
-    </r>
-  </si>
-  <si>
-    <t>Description only supports Chinese, numbers, upper case and lower case letters and English underline “_”</t>
   </si>
   <si>
     <t>create_i18nKey_58</t>
@@ -1432,14 +1314,144 @@
   </si>
   <si>
     <t>Create disk from snapshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloud Disk Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The general  SSD Cloud Disk can stably provide basic capabilities of 10&amp;nbsp;IOPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/GB. The performance  SSD Cloud Disk can stably provide optimal capabilities of 30&amp;nbsp;IOPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/GB. The capacity  HDD Cloud Disk is suitable for cold data backup and archiving.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchases</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The quota of resources in the chosen region is used up, please switch the region or open ticket for increasing quota.' </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The quota of resources of the selected region is  used up, please switch the region or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>描述支持中文、数字、大小写字母及英文下划线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“_”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>且不能超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>个字符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The description supports Chinese, digits, upper case and lower case letters and English underline “_”, with at most 256 characters'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The cloud disk capacity has exceeded the available capacity quota of the specified cloud disk type'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>描述支持中文、数字、大小写字母及英文下划线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“_”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description  supports Chinese, numbers, upper case and lower case letters and English underline “_”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The cloud disk created with the encrypted snapshot will be automatically encrypted and the cloud disk created with the unencrypted snapshot will not be automatically encrypted. If the snapshot is not selected, you can freely determine to create an encrypted cloud disk or not.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase Time Duration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1466,6 +1478,25 @@
       <name val="宋体"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1487,12 +1518,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1832,10 +1873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C41" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.25" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1845,7 +1886,7 @@
     <col min="4" max="16384" width="38.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1856,7 +1897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1867,7 +1908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1878,7 +1919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1889,7 +1930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1900,7 +1941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1911,7 +1952,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1922,561 +1963,570 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="C11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="2" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="2" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="2" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="2" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C26" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C28" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="2" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="2" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="2" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B57" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B47 A49:B55 A48 A57:B57 A56" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>